--- a/ES6 Week Break Down.xlsx
+++ b/ES6 Week Break Down.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Development\ES6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugene.larkin\OneDrive - Paya\Paya\CurrentWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C608BFE-3F2A-40DC-A668-5AA6812A0AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E202B6F-04F3-4ADA-AD99-DADEBA9BC402}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24405" yWindow="2730" windowWidth="21525" windowHeight="11385" xr2:uid="{4F6AFE27-649E-4501-A6E5-17B3273EFF61}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19640" windowHeight="14160" xr2:uid="{4F6AFE27-649E-4501-A6E5-17B3273EFF61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -371,6 +377,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,19 +701,19 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -720,27 +733,27 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -760,27 +773,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>43946</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -798,7 +811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -818,7 +831,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -838,7 +851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -858,27 +871,27 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>44016</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -896,27 +909,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>44044</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -934,47 +947,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="9">
         <v>44072</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>44086</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -994,27 +1007,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>44114</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1034,7 +1047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1054,7 +1067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1074,7 +1087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1094,43 +1107,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="9">
         <v>44184</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="9">
         <v>44198</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6" t="s">
         <v>54</v>
       </c>
     </row>
